--- a/Assignment_Testdesign/Assignment5-Testdesign-Tien Anh.xlsx
+++ b/Assignment_Testdesign/Assignment5-Testdesign-Tien Anh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRookies\Assignment_Testdesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F31F2F-E7A7-4CC4-9364-B87ED8085159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D33CD7-9D71-4B4C-A83E-06CA60C6B3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Common Checklist</t>
   </si>
@@ -199,24 +199,6 @@
   </si>
   <si>
     <t>External build 16112011</t>
-  </si>
-  <si>
-    <t>Check Address in Address Book is clickable</t>
-  </si>
-  <si>
-    <t>Verify pop-up is display when click on delete icon</t>
-  </si>
-  <si>
-    <t>Delete  Address successfully</t>
-  </si>
-  <si>
-    <t>Delete Address failed by click on CANCEL button on Pop-up</t>
-  </si>
-  <si>
-    <t>Delete Default Address failed by click on DELETE button on Pop-up</t>
-  </si>
-  <si>
-    <t>Delete Default Address failed by click on CANCEL button on Pop-up</t>
   </si>
   <si>
     <t>Asignment 5</t>
@@ -1021,6 +1003,33 @@
     <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1038,33 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1594,7 +1576,7 @@
   <dimension ref="A1:X116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.2"/>
@@ -1610,10 +1592,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1622,13 +1604,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1637,9 +1619,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="22.8">
       <c r="A3" s="13"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="63"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1650,11 +1632,11 @@
       <c r="A4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1668,11 +1650,11 @@
       <c r="A5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1686,11 +1668,11 @@
       <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1701,11 +1683,11 @@
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1717,9 +1699,9 @@
       <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1" ht="26.4">
@@ -1862,11 +1844,11 @@
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="39.6">
@@ -1900,11 +1882,11 @@
     </row>
     <row r="18" spans="1:9" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="A18" s="35"/>
-      <c r="B18" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
+      <c r="B18" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
@@ -1915,9 +1897,7 @@
       <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="65" t="s">
-        <v>25</v>
-      </c>
+      <c r="B19" s="51"/>
       <c r="C19" s="17"/>
       <c r="D19" s="23"/>
       <c r="E19" s="19"/>
@@ -1931,9 +1911,7 @@
         <f>A19+1</f>
         <v>2</v>
       </c>
-      <c r="B20" s="65" t="s">
-        <v>26</v>
-      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="17"/>
       <c r="D20" s="23"/>
       <c r="E20" s="19"/>
@@ -1947,9 +1925,7 @@
         <f t="shared" ref="A21:A24" si="0">A20+1</f>
         <v>3</v>
       </c>
-      <c r="B21" s="65" t="s">
-        <v>27</v>
-      </c>
+      <c r="B21" s="51"/>
       <c r="C21" s="17"/>
       <c r="D21" s="23"/>
       <c r="E21" s="19"/>
@@ -1963,9 +1939,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B22" s="65" t="s">
-        <v>28</v>
-      </c>
+      <c r="B22" s="51"/>
       <c r="C22" s="17"/>
       <c r="D22" s="23"/>
       <c r="E22" s="19"/>
@@ -1974,14 +1948,12 @@
       <c r="H22" s="17"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" s="11" customFormat="1" ht="26.4">
+    <row r="23" spans="1:9" s="11" customFormat="1">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B23" s="65" t="s">
-        <v>29</v>
-      </c>
+      <c r="B23" s="51"/>
       <c r="C23" s="17"/>
       <c r="D23" s="23"/>
       <c r="E23" s="19"/>
@@ -1990,14 +1962,12 @@
       <c r="H23" s="17"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" s="11" customFormat="1" ht="26.4">
+    <row r="24" spans="1:9" s="11" customFormat="1">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B24" s="65" t="s">
-        <v>30</v>
-      </c>
+      <c r="B24" s="51"/>
       <c r="C24" s="17"/>
       <c r="D24" s="23"/>
       <c r="E24" s="19"/>
@@ -2118,9 +2088,9 @@
     </row>
     <row r="35" spans="1:9" s="11" customFormat="1">
       <c r="A35" s="49"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="56"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
@@ -2272,9 +2242,9 @@
     </row>
     <row r="49" spans="1:9" s="11" customFormat="1">
       <c r="A49" s="49"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="49"/>
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
@@ -2459,9 +2429,9 @@
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1">
       <c r="A66" s="49"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
       <c r="E66" s="49"/>
       <c r="F66" s="50"/>
       <c r="G66" s="50"/>
@@ -2558,9 +2528,9 @@
     </row>
     <row r="75" spans="1:9" s="11" customFormat="1">
       <c r="A75" s="49"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="56"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="65"/>
       <c r="E75" s="49"/>
       <c r="F75" s="50"/>
       <c r="G75" s="50"/>
@@ -2679,9 +2649,9 @@
     </row>
     <row r="86" spans="1:9" s="37" customFormat="1">
       <c r="A86" s="49"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="56"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
       <c r="E86" s="49"/>
       <c r="F86" s="50"/>
       <c r="G86" s="50"/>
@@ -2789,9 +2759,9 @@
     </row>
     <row r="96" spans="1:9" s="11" customFormat="1">
       <c r="A96" s="38"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="53"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="62"/>
       <c r="E96" s="38"/>
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
@@ -2971,23 +2941,23 @@
     <row r="116" s="14" customFormat="1" ht="13.8"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B86:D86"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F117:H174" xr:uid="{8256C5A9-B64E-49E7-8A07-569145E1CAD7}">

--- a/Assignment_Testdesign/Assignment5-Testdesign-Tien Anh.xlsx
+++ b/Assignment_Testdesign/Assignment5-Testdesign-Tien Anh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRookies\Assignment_Testdesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D33CD7-9D71-4B4C-A83E-06CA60C6B3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40C33E8-757E-48AC-8385-AABD2AFD91F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="648" yWindow="1548" windowWidth="11712" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TD_Assiginment4" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="Result_CS_IT_1.1_004">#REF!</definedName>
     <definedName name="safa">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Common Checklist</t>
   </si>
@@ -211,6 +211,27 @@
   </si>
   <si>
     <t>1. Function</t>
+  </si>
+  <si>
+    <t>Verify a confirmation pop-up is displayed when the user clicks on the delete icon.</t>
+  </si>
+  <si>
+    <t>Verify that user cannot delete default address</t>
+  </si>
+  <si>
+    <t>Verify if the default address is changed to a non-default address, can delete successfully</t>
+  </si>
+  <si>
+    <t>Verify delete successfully if the user clicks on the Delete button in the confirmation pop-up</t>
+  </si>
+  <si>
+    <t>Verify delete unsuccessfully if the user clicks on the Cancel button in the confirmation pop-up</t>
+  </si>
+  <si>
+    <t>Verify delete unsuccessfully if the user clicks on the X button in the confirmation pop-up</t>
+  </si>
+  <si>
+    <t>Verify delete unsuccessfully if user press the ESC key</t>
   </si>
 </sst>
 </file>
@@ -222,12 +243,19 @@
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d&quot;, &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -449,7 +477,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,14 +634,8 @@
         <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -781,275 +803,359 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="13" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="13" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" applyFont="0"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="10">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="15" borderId="10" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="16" borderId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="17" borderId="6">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="28" fillId="21" borderId="0"/>
+    <xf numFmtId="166" fontId="28" fillId="21" borderId="0"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="11"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="22" borderId="11">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="23" borderId="11"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="33" fillId="24" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="34" fillId="25" borderId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="26" borderId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" applyFont="0"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" applyFont="0"/>
+    <xf numFmtId="165" fontId="13" fillId="14" borderId="13">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="15" borderId="13" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="16" borderId="12">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="14" borderId="10">
+    <xf numFmtId="165" fontId="19" fillId="17" borderId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="16" borderId="14">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="17" borderId="14">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="77">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="15" borderId="10" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="20" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="21" fillId="16" borderId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="17" borderId="6">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="27" fillId="21" borderId="0"/>
-    <xf numFmtId="166" fontId="27" fillId="21" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="11"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="22" borderId="11">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="23" borderId="11"/>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="32" fillId="24" borderId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="33" fillId="25" borderId="12">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="26" borderId="12">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="58">
     <cellStyle name="background" xfId="11" xr:uid="{1E25064E-11A3-4407-BB56-72303C4C0B5C}"/>
     <cellStyle name="background 2" xfId="12" xr:uid="{6B406EC6-1470-48E8-8043-7D57409120F9}"/>
     <cellStyle name="background 2 2" xfId="30" xr:uid="{0DA8B3F7-C6E0-4013-93D8-DED08B19028C}"/>
@@ -1057,12 +1163,15 @@
     <cellStyle name="body_tyext" xfId="13" xr:uid="{0302C946-2B7E-4C3F-8EDD-4EA9EED5BED7}"/>
     <cellStyle name="cell" xfId="14" xr:uid="{72D77DA1-80F8-49B4-807C-5EC832FB3A66}"/>
     <cellStyle name="cell 2" xfId="31" xr:uid="{5A919D97-42E0-49AC-9BEF-1B425B4C9054}"/>
+    <cellStyle name="cell 3" xfId="51" xr:uid="{BBEC38B2-3A1C-43A6-BD26-B40EBC9A2981}"/>
     <cellStyle name="document title" xfId="15" xr:uid="{D9869B5A-D9A3-4C53-B32C-7BF3DAB0CA2F}"/>
     <cellStyle name="document title 2" xfId="32" xr:uid="{3DB18006-5FBD-411E-B376-6DF8303C08FB}"/>
     <cellStyle name="group" xfId="16" xr:uid="{30936B25-0DBF-4D61-9FAB-A16E3B69317E}"/>
     <cellStyle name="group 2" xfId="33" xr:uid="{4708274C-1475-426A-B517-D1B96F2C0843}"/>
+    <cellStyle name="group 3" xfId="52" xr:uid="{BC559B1B-5A8F-4438-B2B0-FC69EAB30C86}"/>
     <cellStyle name="Header" xfId="17" xr:uid="{40F0C692-F18A-4158-8B83-7FF053EEA2EC}"/>
     <cellStyle name="Header 2" xfId="34" xr:uid="{A8846091-9A78-45ED-A673-F6A92358DF34}"/>
+    <cellStyle name="Header 3" xfId="53" xr:uid="{EB6BE4C0-E986-4658-88C7-934C8A0D94CE}"/>
     <cellStyle name="Heading" xfId="18" xr:uid="{E3FBCDB7-AF76-4BC0-B3AF-E858A881DAF2}"/>
     <cellStyle name="Heading 3 2" xfId="35" xr:uid="{90244EDC-96B4-40EC-B5C6-07CF9364E682}"/>
     <cellStyle name="Hyperlink 2" xfId="27" xr:uid="{AFD68647-164C-44DE-BF2E-B3484BA58943}"/>
@@ -1078,12 +1187,14 @@
     <cellStyle name="Normal 3" xfId="3" xr:uid="{C36A63CE-7977-4506-A13D-3412C626276A}"/>
     <cellStyle name="Normal 3 2" xfId="8" xr:uid="{269BDB59-D508-4398-9F63-42815B416262}"/>
     <cellStyle name="Normal 3 3" xfId="40" xr:uid="{72701AA4-B058-4DFE-9E19-F1CC3F5594A3}"/>
+    <cellStyle name="Normal 3 4" xfId="50" xr:uid="{E1D4AB0A-B778-4CE3-B3FF-11BCF3DA8BAB}"/>
     <cellStyle name="Normal 4" xfId="10" xr:uid="{E8D708E4-A945-4240-9350-ACFEF4FBCAEB}"/>
     <cellStyle name="Normal 4 2" xfId="41" xr:uid="{A3EC77E9-BBCB-434F-9B5D-CF46DD46E747}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{DBAB9BA3-B301-4547-AF3D-A19E931F8FD8}"/>
     <cellStyle name="Normal 6" xfId="19" xr:uid="{95AF275D-FD9C-429D-931F-C8144F93E397}"/>
     <cellStyle name="Normal 6 2" xfId="42" xr:uid="{1190D079-E1D7-470F-AF27-FD4C6D39EEBC}"/>
     <cellStyle name="Normal 7" xfId="28" xr:uid="{F1C9B3F4-BEAB-47C7-956F-D5AACE61EA6D}"/>
+    <cellStyle name="Normal 8" xfId="49" xr:uid="{3273EB3E-EDCB-416C-8D1A-9B2FA4FA2972}"/>
     <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="page title" xfId="20" xr:uid="{D359ACE3-7F9D-40BC-BAF5-FF78A2225F29}"/>
     <cellStyle name="page title 2" xfId="43" xr:uid="{43CD8295-7E09-4700-875F-3AF520B8BD41}"/>
@@ -1096,7 +1207,11 @@
     <cellStyle name="Table header" xfId="24" xr:uid="{2FE6CAB7-1A8D-4E15-948B-605D0A78A4F9}"/>
     <cellStyle name="Table header 2" xfId="25" xr:uid="{16B55928-DD3F-45B3-91F2-64F1A26CE404}"/>
     <cellStyle name="Table header 2 2" xfId="48" xr:uid="{5F52A024-AC3B-462A-B74F-74A2B754DACF}"/>
+    <cellStyle name="Table header 2 3" xfId="55" xr:uid="{5A136116-8D58-4E04-B6BF-9AC01CD25125}"/>
+    <cellStyle name="Table header 2 4" xfId="57" xr:uid="{F143AB89-347B-4E70-A870-36BCE4897E66}"/>
     <cellStyle name="Table header 3" xfId="47" xr:uid="{3B10328A-D77D-4AED-BC79-2A5153F6BDD7}"/>
+    <cellStyle name="Table header 4" xfId="54" xr:uid="{0F36A86E-EE71-4C81-9F9E-ECF298C2F318}"/>
+    <cellStyle name="Table header 5" xfId="56" xr:uid="{9269F489-DAC6-4337-96AD-530362982D49}"/>
     <cellStyle name="table_cell" xfId="6" xr:uid="{46A764CB-9094-4F56-B1E8-F7FBF4718BF4}"/>
     <cellStyle name="標準_040802 債権ＤＢ" xfId="26" xr:uid="{97DAFF5B-C240-4911-8B70-EAC5A0A64EA5}"/>
   </cellStyles>
@@ -1573,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D34C5A-4B36-4701-BA45-B0514453A9B8}">
-  <dimension ref="A1:X116"/>
+  <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.2"/>
@@ -1592,10 +1707,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1604,13 +1719,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1619,9 +1734,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="22.8">
       <c r="A3" s="13"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="56"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1632,11 +1747,11 @@
       <c r="A4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1650,11 +1765,11 @@
       <c r="A5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1668,11 +1783,11 @@
       <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1683,11 +1798,11 @@
       <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1699,9 +1814,9 @@
       <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1" ht="26.4">
@@ -1743,15 +1858,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="26">
-        <f>COUNTIF($F$18:$F$49668,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$49659,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="26">
-        <f>COUNTIF($G$18:$G$49668,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49659,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="26">
-        <f>COUNTIF($H$18:$H$49668,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49659,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -1760,15 +1875,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="26">
-        <f>COUNTIF($F$18:$F$49388,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$49379,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="26">
-        <f>COUNTIF($G$18:$G$49388,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49379,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="26">
-        <f>COUNTIF($H$18:$H$49388,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49379,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -1777,15 +1892,15 @@
         <v>11</v>
       </c>
       <c r="B13" s="26">
-        <f>COUNTIF($F$18:$F$49388,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49379,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="26">
-        <f>COUNTIF($G$18:$G$49388,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49379,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="26">
-        <f>COUNTIF($H$18:$H$49388,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49379,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -1799,15 +1914,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="26">
-        <f>COUNTIF($F$18:$F$49388,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49379,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="26">
-        <f>COUNTIF($G$18:$G$49388,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49379,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="26">
-        <f>COUNTIF($H$18:$H$49388,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49379,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -1821,15 +1936,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="26">
-        <f>COUNTIF($F$18:$F$49388,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49379,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="26">
-        <f>COUNTIF($G$18:$G$49388,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49379,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="26">
-        <f>COUNTIF($H$18:$H$49388,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49379,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -1844,11 +1959,11 @@
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="39.6">
@@ -1882,22 +1997,24 @@
     </row>
     <row r="18" spans="1:9" s="34" customFormat="1" ht="21.75" customHeight="1">
       <c r="A18" s="35"/>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:9" s="34" customFormat="1">
+    <row r="19" spans="1:9" s="34" customFormat="1" ht="26.4">
       <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="51"/>
+      <c r="B19" s="72" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="17"/>
       <c r="D19" s="23"/>
       <c r="E19" s="19"/>
@@ -1911,7 +2028,9 @@
         <f>A19+1</f>
         <v>2</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="76" t="s">
+        <v>30</v>
+      </c>
       <c r="C20" s="17"/>
       <c r="D20" s="23"/>
       <c r="E20" s="19"/>
@@ -1920,12 +2039,14 @@
       <c r="H20" s="17"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" s="34" customFormat="1">
+    <row r="21" spans="1:9" s="34" customFormat="1" ht="26.4">
       <c r="A21" s="17">
-        <f t="shared" ref="A21:A24" si="0">A20+1</f>
+        <f t="shared" ref="A21:A25" si="0">A20+1</f>
         <v>3</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="76" t="s">
+        <v>31</v>
+      </c>
       <c r="C21" s="17"/>
       <c r="D21" s="23"/>
       <c r="E21" s="19"/>
@@ -1934,12 +2055,14 @@
       <c r="H21" s="17"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" s="11" customFormat="1">
+    <row r="22" spans="1:9" s="11" customFormat="1" ht="26.4">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="76" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="17"/>
       <c r="D22" s="23"/>
       <c r="E22" s="19"/>
@@ -1948,12 +2071,14 @@
       <c r="H22" s="17"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" s="11" customFormat="1">
+    <row r="23" spans="1:9" s="11" customFormat="1" ht="26.4">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="76" t="s">
+        <v>33</v>
+      </c>
       <c r="C23" s="17"/>
       <c r="D23" s="23"/>
       <c r="E23" s="19"/>
@@ -1962,12 +2087,14 @@
       <c r="H23" s="17"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" s="11" customFormat="1">
+    <row r="24" spans="1:9" s="11" customFormat="1" ht="26.4">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="76" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" s="17"/>
       <c r="D24" s="23"/>
       <c r="E24" s="19"/>
@@ -1977,8 +2104,13 @@
       <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="76">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>35</v>
+      </c>
       <c r="C25" s="17"/>
       <c r="D25" s="23"/>
       <c r="E25" s="19"/>
@@ -1989,7 +2121,7 @@
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1">
       <c r="A26" s="17"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="17"/>
       <c r="D26" s="23"/>
       <c r="E26" s="19"/>
@@ -1999,10 +2131,10 @@
       <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" s="11" customFormat="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="19"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -2010,10 +2142,10 @@
       <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="19"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -2021,10 +2153,10 @@
       <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" s="11" customFormat="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="19"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -2032,10 +2164,10 @@
       <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" s="11" customFormat="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="19"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -2043,10 +2175,10 @@
       <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" s="11" customFormat="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="19"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -2054,10 +2186,10 @@
       <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" s="11" customFormat="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="19"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -2065,10 +2197,10 @@
       <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" s="11" customFormat="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="19"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -2076,10 +2208,10 @@
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="1:9" s="11" customFormat="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="23"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="19"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -2087,21 +2219,21 @@
       <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" s="11" customFormat="1">
-      <c r="A35" s="49"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="49"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="23"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="19"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -2109,10 +2241,10 @@
       <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9" s="11" customFormat="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="19"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -2120,10 +2252,10 @@
       <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" s="11" customFormat="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="19"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -2131,10 +2263,10 @@
       <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" s="11" customFormat="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="23"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="19"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -2142,21 +2274,21 @@
       <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" s="11" customFormat="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="20"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" spans="1:9" s="11" customFormat="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="23"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="19"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -2164,10 +2296,10 @@
       <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" s="11" customFormat="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="23"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="19"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -2175,10 +2307,10 @@
       <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" s="11" customFormat="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="23"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="19"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -2186,10 +2318,10 @@
       <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" s="11" customFormat="1">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="23"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="19"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
@@ -2197,10 +2329,10 @@
       <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:9" s="11" customFormat="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="23"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="19"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -2208,10 +2340,10 @@
       <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" s="11" customFormat="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="23"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="19"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -2219,10 +2351,10 @@
       <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" s="11" customFormat="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="23"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="19"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -2230,10 +2362,10 @@
       <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" s="11" customFormat="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="19"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
@@ -2241,21 +2373,21 @@
       <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:9" s="11" customFormat="1">
-      <c r="A49" s="49"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="49"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" s="11" customFormat="1">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="23"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="19"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -2263,10 +2395,10 @@
       <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" s="11" customFormat="1">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="23"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="19"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -2275,7 +2407,7 @@
     </row>
     <row r="52" spans="1:9" s="11" customFormat="1">
       <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="17"/>
       <c r="D52" s="23"/>
       <c r="E52" s="19"/>
@@ -2286,7 +2418,7 @@
     </row>
     <row r="53" spans="1:9" s="11" customFormat="1">
       <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="17"/>
       <c r="D53" s="23"/>
       <c r="E53" s="19"/>
@@ -2298,8 +2430,8 @@
     <row r="54" spans="1:9" s="11" customFormat="1">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="23"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="19"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -2308,9 +2440,9 @@
     </row>
     <row r="55" spans="1:9" s="11" customFormat="1">
       <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="23"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
       <c r="E55" s="19"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
@@ -2320,8 +2452,8 @@
     <row r="56" spans="1:9" s="11" customFormat="1">
       <c r="A56" s="17"/>
       <c r="B56" s="45"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
       <c r="E56" s="19"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
@@ -2329,21 +2461,21 @@
       <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" s="11" customFormat="1">
-      <c r="A57" s="17"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="20"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="49"/>
     </row>
     <row r="58" spans="1:9" s="11" customFormat="1">
       <c r="A58" s="17"/>
       <c r="B58" s="45"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="23"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="19"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
@@ -2352,9 +2484,9 @@
     </row>
     <row r="59" spans="1:9" s="11" customFormat="1">
       <c r="A59" s="17"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="23"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
       <c r="E59" s="19"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
@@ -2363,9 +2495,9 @@
     </row>
     <row r="60" spans="1:9" s="11" customFormat="1">
       <c r="A60" s="17"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="23"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="19"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
@@ -2374,9 +2506,9 @@
     </row>
     <row r="61" spans="1:9" s="11" customFormat="1">
       <c r="A61" s="17"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="23"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
       <c r="E61" s="19"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -2386,19 +2518,19 @@
     <row r="62" spans="1:9" s="11" customFormat="1">
       <c r="A62" s="17"/>
       <c r="B62" s="45"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
       <c r="E62" s="19"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" s="11" customFormat="1">
+    <row r="63" spans="1:9" s="11" customFormat="1" ht="19.5" customHeight="1">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="42"/>
-      <c r="D63" s="18"/>
+      <c r="D63" s="42"/>
       <c r="E63" s="19"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
@@ -2429,9 +2561,9 @@
     </row>
     <row r="66" spans="1:9" s="11" customFormat="1">
       <c r="A66" s="49"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="49"/>
       <c r="F66" s="50"/>
       <c r="G66" s="50"/>
@@ -2442,7 +2574,7 @@
       <c r="A67" s="17"/>
       <c r="B67" s="45"/>
       <c r="C67" s="42"/>
-      <c r="D67" s="18"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="19"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
@@ -2451,7 +2583,7 @@
     </row>
     <row r="68" spans="1:9" s="11" customFormat="1">
       <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="42"/>
       <c r="D68" s="42"/>
       <c r="E68" s="19"/>
@@ -2462,7 +2594,7 @@
     </row>
     <row r="69" spans="1:9" s="11" customFormat="1">
       <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="42"/>
       <c r="D69" s="42"/>
       <c r="E69" s="19"/>
@@ -2484,7 +2616,7 @@
     </row>
     <row r="71" spans="1:9" s="11" customFormat="1">
       <c r="A71" s="17"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="42"/>
       <c r="D71" s="42"/>
       <c r="E71" s="19"/>
@@ -2493,7 +2625,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" s="11" customFormat="1" ht="19.5" customHeight="1">
+    <row r="72" spans="1:9" s="11" customFormat="1">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="42"/>
@@ -2506,7 +2638,7 @@
     </row>
     <row r="73" spans="1:9" s="11" customFormat="1">
       <c r="A73" s="17"/>
-      <c r="B73" s="45"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
       <c r="E73" s="19"/>
@@ -2517,7 +2649,7 @@
     </row>
     <row r="74" spans="1:9" s="11" customFormat="1">
       <c r="A74" s="17"/>
-      <c r="B74" s="45"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="42"/>
       <c r="D74" s="42"/>
       <c r="E74" s="19"/>
@@ -2527,15 +2659,15 @@
       <c r="I74" s="20"/>
     </row>
     <row r="75" spans="1:9" s="11" customFormat="1">
-      <c r="A75" s="49"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="49"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:9" s="11" customFormat="1">
       <c r="A76" s="17"/>
@@ -2548,22 +2680,22 @@
       <c r="H76" s="17"/>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" s="11" customFormat="1">
-      <c r="A77" s="17"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="20"/>
+    <row r="77" spans="1:9" s="37" customFormat="1">
+      <c r="A77" s="49"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="49"/>
     </row>
     <row r="78" spans="1:9" s="11" customFormat="1">
       <c r="A78" s="17"/>
       <c r="B78" s="45"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="43"/>
       <c r="E78" s="19"/>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
@@ -2572,9 +2704,9 @@
     </row>
     <row r="79" spans="1:9" s="11" customFormat="1">
       <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="19"/>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
@@ -2583,173 +2715,174 @@
     </row>
     <row r="80" spans="1:9" s="11" customFormat="1">
       <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
+      <c r="D80" s="41"/>
       <c r="E80" s="19"/>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" s="11" customFormat="1">
+    <row r="81" spans="1:10" s="11" customFormat="1">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
+      <c r="D81" s="47"/>
       <c r="E81" s="19"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" s="11" customFormat="1">
+    <row r="82" spans="1:10" s="11" customFormat="1">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="19"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" s="11" customFormat="1">
+    <row r="83" spans="1:10" s="11" customFormat="1">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="19"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" s="11" customFormat="1">
+    <row r="84" spans="1:10" s="11" customFormat="1">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="18"/>
       <c r="E84" s="19"/>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" s="11" customFormat="1">
+    <row r="85" spans="1:10" s="11" customFormat="1">
       <c r="A85" s="17"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="19"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" s="37" customFormat="1">
-      <c r="A86" s="49"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="49"/>
-    </row>
-    <row r="87" spans="1:9" s="11" customFormat="1">
-      <c r="A87" s="17"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="20"/>
-    </row>
-    <row r="88" spans="1:9" s="11" customFormat="1">
+    <row r="86" spans="1:10" s="11" customFormat="1">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="20"/>
+    </row>
+    <row r="87" spans="1:10" s="11" customFormat="1">
+      <c r="A87" s="38"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="38"/>
+    </row>
+    <row r="88" spans="1:10" s="11" customFormat="1">
       <c r="A88" s="17"/>
       <c r="B88" s="45"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" s="11" customFormat="1">
+    <row r="89" spans="1:10" s="11" customFormat="1">
       <c r="A89" s="17"/>
       <c r="B89" s="45"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="19"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" s="11" customFormat="1">
+    <row r="90" spans="1:10" s="11" customFormat="1">
       <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="19"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="18"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" s="11" customFormat="1">
+    <row r="91" spans="1:10" s="34" customFormat="1">
       <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="18"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
       <c r="I91" s="20"/>
-    </row>
-    <row r="92" spans="1:9" s="11" customFormat="1">
+      <c r="J91" s="48"/>
+    </row>
+    <row r="92" spans="1:10" s="11" customFormat="1">
       <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="18"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="46"/>
       <c r="E92" s="19"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" s="11" customFormat="1">
+    <row r="93" spans="1:10" s="11" customFormat="1">
       <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="18"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="46"/>
       <c r="E93" s="19"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" s="11" customFormat="1">
+    <row r="94" spans="1:10" s="11" customFormat="1">
       <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="18"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="19"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" s="11" customFormat="1">
+    <row r="95" spans="1:10" s="11" customFormat="1">
       <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="40"/>
       <c r="D95" s="18"/>
       <c r="E95" s="19"/>
       <c r="F95" s="17"/>
@@ -2757,216 +2890,115 @@
       <c r="H95" s="17"/>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" s="11" customFormat="1">
-      <c r="A96" s="38"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="38"/>
-    </row>
-    <row r="97" spans="1:10" s="11" customFormat="1">
+    <row r="96" spans="1:10" s="14" customFormat="1" ht="13.8">
+      <c r="A96" s="17"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="1:9" s="14" customFormat="1" ht="13.8">
       <c r="A97" s="17"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="19"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
       <c r="E97" s="19"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:10" s="11" customFormat="1">
+    <row r="98" spans="1:9" s="14" customFormat="1" ht="13.8">
       <c r="A98" s="17"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="18"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
       <c r="E98" s="19"/>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
       <c r="I98" s="20"/>
     </row>
-    <row r="99" spans="1:10" s="11" customFormat="1">
+    <row r="99" spans="1:9" s="14" customFormat="1" ht="13.8">
       <c r="A99" s="17"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="18"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="19"/>
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:10" s="34" customFormat="1">
+    <row r="100" spans="1:9" s="14" customFormat="1" ht="13.8">
       <c r="A100" s="17"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="19"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="19"/>
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="20"/>
-      <c r="J100" s="48"/>
-    </row>
-    <row r="101" spans="1:10" s="11" customFormat="1">
+    </row>
+    <row r="101" spans="1:9" s="14" customFormat="1" ht="13.8">
       <c r="A101" s="17"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="46"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="19"/>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
       <c r="I101" s="20"/>
     </row>
-    <row r="102" spans="1:10" s="11" customFormat="1">
+    <row r="102" spans="1:9" s="14" customFormat="1" ht="13.8">
       <c r="A102" s="17"/>
       <c r="B102" s="46"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="46"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="19"/>
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:10" s="11" customFormat="1">
-      <c r="A103" s="17"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="20"/>
-    </row>
-    <row r="104" spans="1:10" s="11" customFormat="1">
-      <c r="A104" s="17"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="20"/>
-    </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="13.8">
-      <c r="A105" s="17"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="20"/>
-    </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="13.8">
-      <c r="A106" s="17"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="20"/>
-    </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="13.8">
-      <c r="A107" s="17"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="20"/>
-    </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="13.8">
-      <c r="A108" s="17"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="20"/>
-    </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="13.8">
-      <c r="A109" s="17"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="20"/>
-    </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="13.8">
-      <c r="A110" s="17"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="20"/>
-    </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="13.8">
-      <c r="A111" s="17"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="20"/>
-    </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="13.8"/>
-    <row r="113" s="14" customFormat="1" ht="13.8"/>
-    <row r="114" s="14" customFormat="1" ht="13.8"/>
-    <row r="115" s="14" customFormat="1" ht="13.8"/>
-    <row r="116" s="14" customFormat="1" ht="13.8"/>
+    <row r="103" spans="1:9" s="14" customFormat="1" ht="13.8"/>
+    <row r="104" spans="1:9" s="14" customFormat="1" ht="13.8"/>
+    <row r="105" spans="1:9" s="14" customFormat="1" ht="13.8"/>
+    <row r="106" spans="1:9" s="14" customFormat="1" ht="13.8"/>
+    <row r="107" spans="1:9" s="14" customFormat="1" ht="13.8"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
+  <mergeCells count="16">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B77:D77"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F117:H174" xr:uid="{8256C5A9-B64E-49E7-8A07-569145E1CAD7}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F108:H165" xr:uid="{8256C5A9-B64E-49E7-8A07-569145E1CAD7}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18" xr:uid="{BD85BD33-BCFF-4C2C-89F5-2F9D417D561F}"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17" xr:uid="{C6E077EE-96DF-440B-A75C-2B8E97066011}"/>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H111" xr:uid="{E7299798-A4BE-48DA-8BB3-CABA6F1885A4}">
+    <dataValidation type="list" allowBlank="1" sqref="F19:H102" xr:uid="{E7299798-A4BE-48DA-8BB3-CABA6F1885A4}">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
